--- a/LubanConfig/MiniTemplate/Datas/monster.xlsx
+++ b/LubanConfig/MiniTemplate/Datas/monster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi\Mota\LubanConfig\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5399E220-FD82-4524-B561-47C57CF30F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD138E57-EA28-4840-B041-E21DAF609800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="2850" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圖標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*items</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +197,22 @@
   </si>
   <si>
     <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +603,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -619,23 +627,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -646,26 +654,26 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -679,166 +687,183 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
         <v>42</v>
       </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">

--- a/LubanConfig/MiniTemplate/Datas/monster.xlsx
+++ b/LubanConfig/MiniTemplate/Datas/monster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi\Mota\LubanConfig\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD138E57-EA28-4840-B041-E21DAF609800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF5160D-193F-4528-B166-355F7A1E3A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="2850" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="2940" windowWidth="21585" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>勇者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>無特別注意的點</t>
   </si>
   <si>
@@ -160,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000,10,10,0,0,0,40,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20,18,1,1,1,0,20,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,11 +200,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>slime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bat</t>
+    <t>德古拉</t>
+  </si>
+  <si>
+    <t>德古拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vampire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喪屍</t>
+  </si>
+  <si>
+    <t>喪屍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喪屍武士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒喪屍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰喪屍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髏士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高級骷髏士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥骷髏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初級守衛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中級守衛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高級守衛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>終極守衛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初級法師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中級法師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高級法師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血法師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初級巫師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高級巫師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史萊姆人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水銀人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗物質人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>騎士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵騎士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近衛騎士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滅盡騎士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙手劍士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劍王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光劍士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥劍士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假公主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thunder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>punch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splatter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>claw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130,90,25,12,2,0,25,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -312,6 +482,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,17 +772,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="31.42578125" customWidth="1"/>
     <col min="10" max="10" width="91.85546875" customWidth="1"/>
@@ -627,15 +799,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="8"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
@@ -662,10 +834,10 @@
       <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
@@ -687,10 +859,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -706,17 +878,6 @@
       </c>
       <c r="J3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -727,13 +888,13 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -750,13 +911,13 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
@@ -773,13 +934,13 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
@@ -793,91 +954,438 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/LubanConfig/MiniTemplate/Datas/monster.xlsx
+++ b/LubanConfig/MiniTemplate/Datas/monster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi\Mota\LubanConfig\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF5160D-193F-4528-B166-355F7A1E3A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F23B19-F24F-4BE0-A5A7-1A4B1DC4E5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="2940" windowWidth="21585" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3945" windowWidth="21585" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="122">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多段攻擊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>無</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,10 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thunder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,6 +375,135 @@
   </si>
   <si>
     <t>130,90,25,12,2,0,25,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,75,0,5,1,0,30,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>250,175,15,15,2,0,30,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,35,50,6,1,0,40,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,125,175,20,3,0,40,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>375,350,50,25,4,0,30,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,20,8,4,1,0,30,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>punch</t>
+  </si>
+  <si>
+    <t>150,35,50,8,2,0,30,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,90,180,15,3,0,30,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350,120,220,18,3,0,30,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironsword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,70,115,8,2,0,40,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏液拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,115,70,8,2,0,30,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450,320,275,30,4,0,25,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230,125,50,10,2,0,25,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必殺劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,225,160,15,3,0,25,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,850,780,52,8,0,30,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>860,650,720,45,7,0,40,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔流拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液銀拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗黑大法師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackmagic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750,175,250,100,10,0,25,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法攻擊</t>
+  </si>
+  <si>
+    <t>魔法攻擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法攻擊,黑魔法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -484,6 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -772,16 +894,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.85546875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="31.42578125" customWidth="1"/>
@@ -799,15 +922,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
@@ -834,10 +957,10 @@
       <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
@@ -859,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -888,13 +1011,13 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -911,13 +1034,13 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
@@ -934,13 +1057,13 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
@@ -953,11 +1076,14 @@
       <c r="C8" t="s">
         <v>25</v>
       </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
         <v>27</v>
@@ -972,7 +1098,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>37</v>
@@ -980,7 +1106,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>27</v>
@@ -995,13 +1121,13 @@
         <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
         <v>27</v>
@@ -1015,376 +1141,552 @@
         <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>83</v>
+        <v>103</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" t="s">
+        <v>119</v>
       </c>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>84</v>
+        <v>101</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C35" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>66</v>
       </c>
-      <c r="D35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>67</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>68</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>69</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="H41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>70</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>71</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C45" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="D45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>72</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>72</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" t="s">
+        <v>84</v>
+      </c>
+      <c r="H51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" t="s">
+        <v>83</v>
+      </c>
+      <c r="H55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" t="s">
-        <v>81</v>
+      <c r="H56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" t="s">
+        <v>118</v>
+      </c>
+      <c r="H59" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/MiniTemplate/Datas/monster.xlsx
+++ b/LubanConfig/MiniTemplate/Datas/monster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi\Mota\LubanConfig\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F23B19-F24F-4BE0-A5A7-1A4B1DC4E5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C56018E-60C1-4839-AB28-525DFD8E89AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3945" windowWidth="21585" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="142">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,10 +487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暗黑大法師</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>blackmagic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,6 +503,89 @@
   </si>
   <si>
     <t>魔法攻擊,黑魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,140,45,13,2,0,40,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,375,225,300,50,0,50,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗大法師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菁英骷髏兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280,145,105,18,3,0,30,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法警衛</t>
+  </si>
+  <si>
+    <t>魔法警衛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靈戰士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400,520,450,35,6,0,30,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ripple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,150,300,25,5,0,40,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八爪魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,168,150,20,4,0,50,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四手史萊姆人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250,170,120,14,3,0,30,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1368,7 @@
         <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1297,396 +1379,512 @@
         <v>54</v>
       </c>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
+      <c r="B23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" t="s">
-        <v>27</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H28" t="s">
-        <v>119</v>
-      </c>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="H31" t="s">
+        <v>118</v>
+      </c>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="H35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>65</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C38" t="s">
         <v>65</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D38" t="s">
         <v>85</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E38" t="s">
         <v>105</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H38" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>66</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>67</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C42" t="s">
         <v>67</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D42" t="s">
         <v>97</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E42" t="s">
         <v>107</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H42" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>68</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
         <v>68</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D43" t="s">
         <v>85</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E43" t="s">
         <v>112</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H43" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>69</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C44" t="s">
         <v>69</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>70</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>71</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C48" t="s">
         <v>71</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D48" t="s">
         <v>83</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E48" t="s">
         <v>109</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H48" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>72</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C49" t="s">
         <v>72</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D49" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E49" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H49" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" t="s">
-        <v>83</v>
-      </c>
-      <c r="H50" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" t="s">
-        <v>84</v>
-      </c>
-      <c r="H51" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="D53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" t="s">
+        <v>121</v>
+      </c>
+      <c r="H53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" t="s">
-        <v>83</v>
-      </c>
-      <c r="H55" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" t="s">
         <v>116</v>
       </c>
-      <c r="C59" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E62" t="s">
         <v>117</v>
       </c>
-      <c r="E59" t="s">
-        <v>118</v>
-      </c>
-      <c r="H59" t="s">
-        <v>121</v>
+      <c r="H62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" t="s">
+        <v>136</v>
+      </c>
+      <c r="H64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" t="s">
+        <v>138</v>
+      </c>
+      <c r="H67" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
